--- a/pred_ohlcv/54/2019-10-16 ETHOS ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-16 ETHOS ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -428,6 +433,9 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -453,6 +461,9 @@
       </c>
       <c r="H3" t="n">
         <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -480,6 +491,9 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -506,6 +520,9 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -530,7 +547,10 @@
         <v>65.79833333333336</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -558,6 +578,9 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -584,6 +607,9 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -610,6 +636,9 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -636,6 +665,9 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -662,6 +694,9 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -688,6 +723,9 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -714,6 +752,9 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -738,6 +779,9 @@
         <v>65.64333333333336</v>
       </c>
       <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -764,6 +808,9 @@
         <v>65.61166666666669</v>
       </c>
       <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -790,6 +837,9 @@
         <v>65.57666666666668</v>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -816,6 +866,9 @@
         <v>65.54166666666669</v>
       </c>
       <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -842,552 +895,9 @@
         <v>65.50833333333335</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="C19" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="D19" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="E19" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-      <c r="G19" t="n">
-        <v>65.48500000000003</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="C20" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="D20" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="E20" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="F20" t="n">
-        <v>846</v>
-      </c>
-      <c r="G20" t="n">
-        <v>65.42666666666669</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="D21" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="E21" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
-      </c>
-      <c r="G21" t="n">
-        <v>65.40000000000002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="C22" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="D22" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="E22" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="F22" t="n">
-        <v>77.0754</v>
-      </c>
-      <c r="G22" t="n">
-        <v>65.35666666666668</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="C23" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="D23" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="E23" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G23" t="n">
-        <v>65.33166666666668</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="C24" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="D24" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="E24" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="F24" t="n">
-        <v>34.29012345</v>
-      </c>
-      <c r="G24" t="n">
-        <v>65.30666666666669</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="C25" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="D25" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="E25" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
-      <c r="G25" t="n">
-        <v>65.28166666666668</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="C26" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="D26" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="E26" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2944</v>
-      </c>
-      <c r="G26" t="n">
-        <v>65.25166666666668</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="C27" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="D27" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="E27" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3458</v>
-      </c>
-      <c r="G27" t="n">
-        <v>65.22000000000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="C28" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="D28" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="E28" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1641</v>
-      </c>
-      <c r="G28" t="n">
-        <v>65.18000000000002</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="C29" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="D29" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="E29" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="F29" t="n">
-        <v>871</v>
-      </c>
-      <c r="G29" t="n">
-        <v>65.14000000000003</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="C30" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="D30" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="E30" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1019</v>
-      </c>
-      <c r="G30" t="n">
-        <v>65.1016666666667</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="C31" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="D31" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="E31" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1075.9</v>
-      </c>
-      <c r="G31" t="n">
-        <v>65.05833333333337</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="C32" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="D32" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="E32" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="F32" t="n">
-        <v>902.7329</v>
-      </c>
-      <c r="G32" t="n">
-        <v>65.01833333333336</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="C33" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="D33" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="E33" t="n">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="F33" t="n">
-        <v>4584.0321</v>
-      </c>
-      <c r="G33" t="n">
-        <v>64.97833333333337</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="C34" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="D34" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="E34" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1291.2639</v>
-      </c>
-      <c r="G34" t="n">
-        <v>64.94000000000003</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="C35" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="D35" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="E35" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="F35" t="n">
-        <v>10</v>
-      </c>
-      <c r="G35" t="n">
-        <v>64.90666666666669</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="C36" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="D36" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="E36" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="F36" t="n">
-        <v>3817.3709</v>
-      </c>
-      <c r="G36" t="n">
-        <v>64.87500000000003</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="C37" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="D37" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="E37" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="F37" t="n">
-        <v>803.0439</v>
-      </c>
-      <c r="G37" t="n">
-        <v>64.85000000000002</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="C38" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="D38" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="E38" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="F38" t="n">
-        <v>871</v>
-      </c>
-      <c r="G38" t="n">
-        <v>64.83333333333336</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="C39" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="D39" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="E39" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2891.9999</v>
-      </c>
-      <c r="G39" t="n">
-        <v>64.81833333333336</v>
-      </c>
-      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
